--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>{"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
+    <t>{"Recepient":"Tanzeel Hassan","Last Name":"Hassan","CGPA":3.4,"Date of Graduation":43470,"Batch":2015,"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
   </si>
   <si>
-    <t>[{"position":"left","data":{"type":"Buffer","data":[7,233,223,88,136,209,11,222,11,114,243,110,147,171,54,133,130,80,71,141,143,152,225,57,34,125,67,247,104,17,83,94]}}]</t>
+    <t>[{"position":"right","data":{"type":"Buffer","data":[254,24,25,49,44,145,239,201,117,4,10,208,189,158,237,208,31,167,112,26,10,150,248,223,38,200,97,188,28,208,6,198]}}]</t>
+  </si>
+  <si>
+    <t>{"Recepient":"Taha Shahid","Last Name":"Shahid","CGPA":2.5,"Date of Graduation":43470,"Batch":2015,"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
+  </si>
+  <si>
+    <t>[{"position":"left","data":{"type":"Buffer","data":[134,248,52,137,246,31,70,140,48,214,207,117,120,252,171,109,173,13,115,255,15,192,5,197,66,76,97,153,150,244,10,107]}}]</t>
   </si>
 </sst>
 </file>
@@ -56,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -72,18 +78,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,18 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{"Recepient":"Tanzeel Hassan","Last Name":"Hassan","CGPA":3.4,"Date of Graduation":43470,"Batch":2015,"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
+    <t>{"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
   </si>
   <si>
-    <t>[{"position":"right","data":{"type":"Buffer","data":[254,24,25,49,44,145,239,201,117,4,10,208,189,158,237,208,31,167,112,26,10,150,248,223,38,200,97,188,28,208,6,198]}}]</t>
-  </si>
-  <si>
-    <t>{"Recepient":"Taha Shahid","Last Name":"Shahid","CGPA":2.5,"Date of Graduation":43470,"Batch":2015,"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
-  </si>
-  <si>
-    <t>[{"position":"left","data":{"type":"Buffer","data":[134,248,52,137,246,31,70,140,48,214,207,117,120,252,171,109,173,13,115,255,15,192,5,197,66,76,97,153,150,244,10,107]}}]</t>
+    <t>[{"position":"left","data":{"type":"Buffer","data":[7,233,223,88,136,209,11,222,11,114,243,110,147,171,54,133,130,80,71,141,143,152,225,57,34,125,67,247,104,17,83,94]}}]</t>
   </si>
 </sst>
 </file>
@@ -62,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -78,10 +72,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
